--- a/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_heterogenous.xlsx
+++ b/Working/HW2_BoxModel_manual/starter_code/HW_02_visualization_heterogenous.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moral\HAS_582\homework-david-edu-morales\Working\HW2_BoxModel_manual\starter_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3811C405-5D46-43BE-A0B8-97806142DCF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DD96CFD-9743-4C21-9385-BEA583BA4FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E797DA87-9764-CF40-B10D-4CBD1F0C2290}"/>
   </bookViews>
   <sheets>
     <sheet name="bcf_1_edited" sheetId="3" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="57">
   <si>
     <t>These are the hydraulic conductivity values copied from the BCF file (note refer to the dis fil to know the legth and time units of these values)</t>
   </si>
@@ -197,6 +197,21 @@
   <si>
     <t>1.000000E+00</t>
   </si>
+  <si>
+    <t>K =</t>
+  </si>
+  <si>
+    <t>Keq =</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dH = </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dL = </t>
+  </si>
+  <si>
+    <t>q =</t>
+  </si>
 </sst>
 </file>
 
@@ -262,7 +277,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -271,6 +286,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7176,7 +7198,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>q - distance along streamline - homogenous</a:t>
+              <a:t>q - distance along streamline - heterogenous</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -9870,10 +9892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7E986F2-53D6-1C4D-B056-8DFA12526A7B}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:Y35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11813,7 +11835,71 @@
         <v>1</v>
       </c>
     </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D30" s="10"/>
+      <c r="E30" s="1">
+        <v>1.5E-3</v>
+      </c>
+      <c r="F30" s="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="D31" s="10"/>
+      <c r="E31" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="F31" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D33" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E33" s="1">
+        <f>(SUM(F29:F31)/(F29/E29+F30/E30+F31/E31))</f>
+        <v>6.0753341433778859E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="8">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="1">
+        <f>-E33*E34/E35</f>
+        <v>-1.2150668286755773E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>55</v>
+      </c>
+      <c r="E35" s="8">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D29:D31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -24076,7 +24162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B7FEA8-679C-6245-B574-9BBD7BB6F993}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="80" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="80" zoomScaleNormal="130" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
